--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/场景.xlsx
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1312,7 +1312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" ht="13.5" spans="1:28">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
@@ -1406,7 +1406,7 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" ht="13.5" spans="1:28">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1436,7 +1436,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" ht="13.5" spans="1:28">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1466,7 +1466,7 @@
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" ht="13.5" spans="1:28">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1496,7 +1496,7 @@
       <c r="AA7" s="16"/>
       <c r="AB7" s="16"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="13.5" spans="1:28">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1526,7 +1526,7 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" ht="13.5" spans="1:28">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1556,7 +1556,7 @@
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" ht="13.5" spans="1:28">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1586,7 +1586,7 @@
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" ht="13.5" spans="1:28">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1616,7 +1616,7 @@
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" ht="13.5" spans="1:28">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1646,7 +1646,7 @@
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" ht="13.5" spans="1:28">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1676,7 +1676,7 @@
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" ht="13.5" spans="1:28">
       <c r="A14" s="10"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
@@ -1706,7 +1706,7 @@
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" ht="13.5" spans="1:28">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1736,7 +1736,7 @@
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" ht="13.5" spans="1:28">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1766,7 +1766,7 @@
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" ht="13.5" spans="1:28">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1796,7 +1796,7 @@
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" ht="13.5" spans="1:28">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1826,7 +1826,7 @@
       <c r="AA18" s="16"/>
       <c r="AB18" s="16"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" ht="13.5" spans="1:28">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1856,7 +1856,7 @@
       <c r="AA19" s="16"/>
       <c r="AB19" s="16"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" ht="13.5" spans="1:28">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1886,7 +1886,7 @@
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" ht="13.5" spans="1:28">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1916,7 +1916,7 @@
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" ht="13.5" spans="1:28">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1946,7 +1946,7 @@
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" ht="13.5" spans="1:28">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1976,7 +1976,7 @@
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" ht="13.5" spans="1:28">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2006,7 +2006,7 @@
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" ht="13.5" spans="1:28">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2036,7 +2036,7 @@
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" ht="13.5" spans="1:28">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2066,7 +2066,7 @@
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" ht="13.5" spans="1:28">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2096,7 +2096,7 @@
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" ht="13.5" spans="1:28">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2126,7 +2126,7 @@
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" ht="13.5" spans="1:28">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2156,7 +2156,7 @@
       <c r="AA29" s="16"/>
       <c r="AB29" s="16"/>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" ht="13.5" spans="1:28">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2186,7 +2186,7 @@
       <c r="AA30" s="16"/>
       <c r="AB30" s="16"/>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" ht="13.5" spans="1:28">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2216,7 +2216,7 @@
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" ht="13.5" spans="1:28">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2246,7 +2246,7 @@
       <c r="AA32" s="16"/>
       <c r="AB32" s="16"/>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" ht="13.5" spans="1:28">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2276,7 +2276,7 @@
       <c r="AA33" s="16"/>
       <c r="AB33" s="16"/>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" ht="13.5" spans="1:28">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2306,7 +2306,7 @@
       <c r="AA34" s="16"/>
       <c r="AB34" s="16"/>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" ht="13.5" spans="1:28">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2336,7 +2336,7 @@
       <c r="AA35" s="16"/>
       <c r="AB35" s="16"/>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" ht="13.5" spans="1:28">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2366,7 +2366,7 @@
       <c r="AA36" s="16"/>
       <c r="AB36" s="16"/>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" ht="13.5" spans="1:28">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2396,7 +2396,7 @@
       <c r="AA37" s="16"/>
       <c r="AB37" s="16"/>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" ht="13.5" spans="1:28">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2426,7 +2426,7 @@
       <c r="AA38" s="16"/>
       <c r="AB38" s="16"/>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" ht="13.5" spans="1:28">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2456,7 +2456,7 @@
       <c r="AA39" s="16"/>
       <c r="AB39" s="16"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" ht="13.5" spans="1:28">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2486,7 +2486,7 @@
       <c r="AA40" s="16"/>
       <c r="AB40" s="16"/>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" ht="13.5" spans="1:28">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2516,7 +2516,7 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="16"/>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" ht="13.5" spans="1:28">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2546,7 +2546,7 @@
       <c r="AA42" s="16"/>
       <c r="AB42" s="16"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" ht="13.5" spans="1:28">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2576,7 +2576,7 @@
       <c r="AA43" s="16"/>
       <c r="AB43" s="16"/>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" ht="13.5" spans="1:28">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2606,7 +2606,7 @@
       <c r="AA44" s="16"/>
       <c r="AB44" s="16"/>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" ht="13.5" spans="1:28">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2636,7 +2636,7 @@
       <c r="AA45" s="16"/>
       <c r="AB45" s="16"/>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" ht="13.5" spans="1:28">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2666,7 +2666,7 @@
       <c r="AA46" s="16"/>
       <c r="AB46" s="16"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" ht="13.5" spans="1:28">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2696,7 +2696,7 @@
       <c r="AA47" s="16"/>
       <c r="AB47" s="16"/>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" ht="13.5" spans="1:28">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2726,7 +2726,7 @@
       <c r="AA48" s="16"/>
       <c r="AB48" s="16"/>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" ht="13.5" spans="1:28">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2756,7 +2756,7 @@
       <c r="AA49" s="16"/>
       <c r="AB49" s="16"/>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" ht="13.5" spans="1:28">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -2786,7 +2786,7 @@
       <c r="AA50" s="16"/>
       <c r="AB50" s="16"/>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" ht="13.5" spans="1:28">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -2816,7 +2816,7 @@
       <c r="AA51" s="16"/>
       <c r="AB51" s="16"/>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" ht="13.5" spans="1:28">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2846,7 +2846,7 @@
       <c r="AA52" s="16"/>
       <c r="AB52" s="16"/>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" ht="13.5" spans="1:28">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -2876,7 +2876,7 @@
       <c r="AA53" s="16"/>
       <c r="AB53" s="16"/>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" ht="13.5" spans="1:28">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -2906,7 +2906,7 @@
       <c r="AA54" s="16"/>
       <c r="AB54" s="16"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" ht="13.5" spans="1:28">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2936,7 +2936,7 @@
       <c r="AA55" s="16"/>
       <c r="AB55" s="16"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" ht="13.5" spans="1:28">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -2966,7 +2966,7 @@
       <c r="AA56" s="16"/>
       <c r="AB56" s="16"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" ht="13.5" spans="1:28">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2996,7 +2996,7 @@
       <c r="AA57" s="16"/>
       <c r="AB57" s="16"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" ht="13.5" spans="1:28">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -3026,7 +3026,7 @@
       <c r="AA58" s="16"/>
       <c r="AB58" s="16"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" ht="13.5" spans="1:28">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -3056,7 +3056,7 @@
       <c r="AA59" s="16"/>
       <c r="AB59" s="16"/>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" ht="13.5" spans="1:28">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -3086,7 +3086,7 @@
       <c r="AA60" s="16"/>
       <c r="AB60" s="16"/>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" ht="13.5" spans="1:28">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -3116,7 +3116,7 @@
       <c r="AA61" s="16"/>
       <c r="AB61" s="16"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" ht="13.5" spans="1:28">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3146,7 +3146,7 @@
       <c r="AA62" s="16"/>
       <c r="AB62" s="16"/>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" ht="13.5" spans="1:28">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -3176,7 +3176,7 @@
       <c r="AA63" s="16"/>
       <c r="AB63" s="16"/>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" ht="13.5" spans="1:28">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -3206,7 +3206,7 @@
       <c r="AA64" s="16"/>
       <c r="AB64" s="16"/>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" ht="13.5" spans="1:28">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -3236,7 +3236,7 @@
       <c r="AA65" s="16"/>
       <c r="AB65" s="16"/>
     </row>
-    <row r="66" spans="1:28">
+    <row r="66" ht="13.5" spans="1:28">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -3266,7 +3266,7 @@
       <c r="AA66" s="16"/>
       <c r="AB66" s="16"/>
     </row>
-    <row r="67" spans="1:28">
+    <row r="67" ht="13.5" spans="1:28">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -3296,7 +3296,7 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
     </row>
-    <row r="68" spans="1:28">
+    <row r="68" ht="13.5" spans="1:28">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3326,7 +3326,7 @@
       <c r="AA68" s="16"/>
       <c r="AB68" s="16"/>
     </row>
-    <row r="69" spans="1:28">
+    <row r="69" ht="13.5" spans="1:28">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -3356,7 +3356,7 @@
       <c r="AA69" s="16"/>
       <c r="AB69" s="16"/>
     </row>
-    <row r="70" spans="1:28">
+    <row r="70" ht="13.5" spans="1:28">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3386,7 +3386,7 @@
       <c r="AA70" s="16"/>
       <c r="AB70" s="16"/>
     </row>
-    <row r="71" spans="1:28">
+    <row r="71" ht="13.5" spans="1:28">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -3416,7 +3416,7 @@
       <c r="AA71" s="16"/>
       <c r="AB71" s="16"/>
     </row>
-    <row r="72" spans="1:28">
+    <row r="72" ht="13.5" spans="1:28">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -3446,7 +3446,7 @@
       <c r="AA72" s="16"/>
       <c r="AB72" s="16"/>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" ht="13.5" spans="1:28">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3476,7 +3476,7 @@
       <c r="AA73" s="16"/>
       <c r="AB73" s="16"/>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" ht="13.5" spans="1:28">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -3506,7 +3506,7 @@
       <c r="AA74" s="16"/>
       <c r="AB74" s="16"/>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" ht="13.5" spans="1:28">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -3536,7 +3536,7 @@
       <c r="AA75" s="16"/>
       <c r="AB75" s="16"/>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" ht="13.5" spans="1:28">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3566,7 +3566,7 @@
       <c r="AA76" s="16"/>
       <c r="AB76" s="16"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" ht="13.5" spans="1:28">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -3596,7 +3596,7 @@
       <c r="AA77" s="16"/>
       <c r="AB77" s="16"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" ht="13.5" spans="1:28">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -3626,7 +3626,7 @@
       <c r="AA78" s="16"/>
       <c r="AB78" s="16"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" ht="13.5" spans="1:28">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -3656,7 +3656,7 @@
       <c r="AA79" s="16"/>
       <c r="AB79" s="16"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" ht="13.5" spans="1:28">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3686,7 +3686,7 @@
       <c r="AA80" s="16"/>
       <c r="AB80" s="16"/>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" ht="13.5" spans="1:28">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3716,7 +3716,7 @@
       <c r="AA81" s="16"/>
       <c r="AB81" s="16"/>
     </row>
-    <row r="82" spans="1:28">
+    <row r="82" ht="13.5" spans="1:28">
       <c r="A82" s="10"/>
       <c r="B82" s="14"/>
       <c r="C82" s="10"/>
@@ -3746,7 +3746,7 @@
       <c r="AA82" s="16"/>
       <c r="AB82" s="16"/>
     </row>
-    <row r="83" spans="1:28">
+    <row r="83" ht="13.5" spans="1:28">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3776,7 +3776,7 @@
       <c r="AA83" s="16"/>
       <c r="AB83" s="16"/>
     </row>
-    <row r="84" spans="1:28">
+    <row r="84" ht="13.5" spans="1:28">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3806,7 +3806,7 @@
       <c r="AA84" s="16"/>
       <c r="AB84" s="16"/>
     </row>
-    <row r="85" spans="1:28">
+    <row r="85" ht="13.5" spans="1:28">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3836,7 +3836,7 @@
       <c r="AA85" s="16"/>
       <c r="AB85" s="16"/>
     </row>
-    <row r="86" spans="1:28">
+    <row r="86" ht="13.5" spans="1:28">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3866,7 +3866,7 @@
       <c r="AA86" s="16"/>
       <c r="AB86" s="16"/>
     </row>
-    <row r="87" spans="1:28">
+    <row r="87" ht="13.5" spans="1:28">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3896,7 +3896,7 @@
       <c r="AA87" s="16"/>
       <c r="AB87" s="16"/>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" ht="13.5" spans="1:47">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3945,7 +3945,7 @@
       <c r="AT88" s="16"/>
       <c r="AU88" s="16"/>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" ht="13.5" spans="1:47">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -3994,7 +3994,7 @@
       <c r="AT89" s="16"/>
       <c r="AU89" s="16"/>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" ht="13.5" spans="1:47">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4043,7 +4043,7 @@
       <c r="AT90" s="16"/>
       <c r="AU90" s="16"/>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" ht="13.5" spans="1:47">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -4092,7 +4092,7 @@
       <c r="AT91" s="16"/>
       <c r="AU91" s="16"/>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" ht="13.5" spans="1:47">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -4141,7 +4141,7 @@
       <c r="AT92" s="16"/>
       <c r="AU92" s="16"/>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" ht="13.5" spans="1:47">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -4190,7 +4190,7 @@
       <c r="AT93" s="16"/>
       <c r="AU93" s="16"/>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" ht="13.5" spans="1:47">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -4239,7 +4239,7 @@
       <c r="AT94" s="16"/>
       <c r="AU94" s="16"/>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" ht="13.5" spans="1:47">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -4288,7 +4288,7 @@
       <c r="AT95" s="16"/>
       <c r="AU95" s="16"/>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" ht="13.5" spans="1:47">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -4337,7 +4337,7 @@
       <c r="AT96" s="16"/>
       <c r="AU96" s="16"/>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" ht="13.5" spans="1:47">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -4386,7 +4386,7 @@
       <c r="AT97" s="16"/>
       <c r="AU97" s="16"/>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" ht="13.5" spans="1:47">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -4435,7 +4435,7 @@
       <c r="AT98" s="16"/>
       <c r="AU98" s="16"/>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" ht="13.5" spans="1:47">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -4484,7 +4484,7 @@
       <c r="AT99" s="16"/>
       <c r="AU99" s="16"/>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" ht="13.5" spans="1:47">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -4533,7 +4533,7 @@
       <c r="AT100" s="16"/>
       <c r="AU100" s="16"/>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" ht="13.5" spans="1:47">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4582,7 +4582,7 @@
       <c r="AT101" s="16"/>
       <c r="AU101" s="16"/>
     </row>
-    <row r="102" spans="1:47">
+    <row r="102" ht="13.5" spans="1:47">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4631,7 +4631,7 @@
       <c r="AT102" s="16"/>
       <c r="AU102" s="16"/>
     </row>
-    <row r="103" spans="1:47">
+    <row r="103" ht="13.5" spans="1:47">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -4680,7 +4680,7 @@
       <c r="AT103" s="16"/>
       <c r="AU103" s="16"/>
     </row>
-    <row r="104" spans="1:47">
+    <row r="104" ht="13.5" spans="1:47">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4729,7 +4729,7 @@
       <c r="AT104" s="16"/>
       <c r="AU104" s="16"/>
     </row>
-    <row r="105" spans="1:47">
+    <row r="105" ht="13.5" spans="1:47">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -4778,7 +4778,7 @@
       <c r="AT105" s="16"/>
       <c r="AU105" s="16"/>
     </row>
-    <row r="106" spans="1:47">
+    <row r="106" ht="13.5" spans="1:47">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -4827,7 +4827,7 @@
       <c r="AT106" s="16"/>
       <c r="AU106" s="16"/>
     </row>
-    <row r="107" spans="1:47">
+    <row r="107" ht="13.5" spans="1:47">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -4876,7 +4876,7 @@
       <c r="AT107" s="16"/>
       <c r="AU107" s="16"/>
     </row>
-    <row r="108" spans="1:47">
+    <row r="108" ht="13.5" spans="1:47">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -4925,7 +4925,7 @@
       <c r="AT108" s="16"/>
       <c r="AU108" s="16"/>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" ht="13.5" spans="1:47">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4974,7 +4974,7 @@
       <c r="AT109" s="16"/>
       <c r="AU109" s="16"/>
     </row>
-    <row r="110" spans="1:47">
+    <row r="110" ht="13.5" spans="1:47">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -5023,7 +5023,7 @@
       <c r="AT110" s="16"/>
       <c r="AU110" s="16"/>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" ht="13.5" spans="1:47">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -5072,7 +5072,7 @@
       <c r="AT111" s="16"/>
       <c r="AU111" s="16"/>
     </row>
-    <row r="112" spans="1:47">
+    <row r="112" ht="13.5" spans="1:47">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -5121,7 +5121,7 @@
       <c r="AT112" s="16"/>
       <c r="AU112" s="16"/>
     </row>
-    <row r="113" spans="1:47">
+    <row r="113" ht="13.5" spans="1:47">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -5170,7 +5170,7 @@
       <c r="AT113" s="16"/>
       <c r="AU113" s="16"/>
     </row>
-    <row r="114" spans="1:47">
+    <row r="114" ht="13.5" spans="1:47">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -5219,7 +5219,7 @@
       <c r="AT114" s="16"/>
       <c r="AU114" s="16"/>
     </row>
-    <row r="115" spans="1:47">
+    <row r="115" ht="13.5" spans="1:47">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -5268,7 +5268,7 @@
       <c r="AT115" s="16"/>
       <c r="AU115" s="16"/>
     </row>
-    <row r="116" spans="1:47">
+    <row r="116" ht="13.5" spans="1:47">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -5317,7 +5317,7 @@
       <c r="AT116" s="16"/>
       <c r="AU116" s="16"/>
     </row>
-    <row r="117" spans="1:47">
+    <row r="117" ht="13.5" spans="1:47">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -5366,7 +5366,7 @@
       <c r="AT117" s="16"/>
       <c r="AU117" s="16"/>
     </row>
-    <row r="118" spans="1:47">
+    <row r="118" ht="13.5" spans="1:47">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -5415,7 +5415,7 @@
       <c r="AT118" s="16"/>
       <c r="AU118" s="16"/>
     </row>
-    <row r="119" spans="1:47">
+    <row r="119" ht="13.5" spans="1:47">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -5464,7 +5464,7 @@
       <c r="AT119" s="16"/>
       <c r="AU119" s="16"/>
     </row>
-    <row r="120" spans="1:47">
+    <row r="120" ht="13.5" spans="1:47">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -5513,7 +5513,7 @@
       <c r="AT120" s="16"/>
       <c r="AU120" s="16"/>
     </row>
-    <row r="121" spans="1:47">
+    <row r="121" ht="13.5" spans="1:47">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -5562,7 +5562,7 @@
       <c r="AT121" s="16"/>
       <c r="AU121" s="16"/>
     </row>
-    <row r="122" spans="1:47">
+    <row r="122" ht="13.5" spans="1:47">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -5611,7 +5611,7 @@
       <c r="AT122" s="16"/>
       <c r="AU122" s="16"/>
     </row>
-    <row r="123" spans="1:47">
+    <row r="123" ht="13.5" spans="1:47">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -5660,7 +5660,7 @@
       <c r="AT123" s="16"/>
       <c r="AU123" s="16"/>
     </row>
-    <row r="124" spans="1:47">
+    <row r="124" ht="13.5" spans="1:47">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -5709,7 +5709,7 @@
       <c r="AT124" s="16"/>
       <c r="AU124" s="16"/>
     </row>
-    <row r="125" spans="1:47">
+    <row r="125" ht="13.5" spans="1:47">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -5758,7 +5758,7 @@
       <c r="AT125" s="16"/>
       <c r="AU125" s="16"/>
     </row>
-    <row r="126" spans="1:47">
+    <row r="126" ht="13.5" spans="1:47">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -5807,7 +5807,7 @@
       <c r="AT126" s="16"/>
       <c r="AU126" s="16"/>
     </row>
-    <row r="127" spans="1:47">
+    <row r="127" ht="13.5" spans="1:47">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -5856,7 +5856,7 @@
       <c r="AT127" s="16"/>
       <c r="AU127" s="16"/>
     </row>
-    <row r="128" spans="1:47">
+    <row r="128" ht="13.5" spans="1:47">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -5905,7 +5905,7 @@
       <c r="AT128" s="16"/>
       <c r="AU128" s="16"/>
     </row>
-    <row r="129" spans="1:47">
+    <row r="129" ht="13.5" spans="1:47">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -5954,7 +5954,7 @@
       <c r="AT129" s="16"/>
       <c r="AU129" s="16"/>
     </row>
-    <row r="130" spans="1:47">
+    <row r="130" ht="13.5" spans="1:47">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -6003,7 +6003,7 @@
       <c r="AT130" s="16"/>
       <c r="AU130" s="16"/>
     </row>
-    <row r="131" spans="1:47">
+    <row r="131" ht="13.5" spans="1:47">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -6052,7 +6052,7 @@
       <c r="AT131" s="16"/>
       <c r="AU131" s="16"/>
     </row>
-    <row r="132" spans="1:47">
+    <row r="132" ht="13.5" spans="1:47">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -6101,7 +6101,7 @@
       <c r="AT132" s="16"/>
       <c r="AU132" s="16"/>
     </row>
-    <row r="133" spans="1:47">
+    <row r="133" ht="13.5" spans="1:47">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -6150,7 +6150,7 @@
       <c r="AT133" s="16"/>
       <c r="AU133" s="16"/>
     </row>
-    <row r="134" spans="1:47">
+    <row r="134" ht="13.5" spans="1:47">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -6199,7 +6199,7 @@
       <c r="AT134" s="16"/>
       <c r="AU134" s="16"/>
     </row>
-    <row r="135" spans="1:47">
+    <row r="135" ht="13.5" spans="1:47">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -6248,7 +6248,7 @@
       <c r="AT135" s="16"/>
       <c r="AU135" s="16"/>
     </row>
-    <row r="136" spans="1:47">
+    <row r="136" ht="13.5" spans="1:47">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -6297,7 +6297,7 @@
       <c r="AT136" s="16"/>
       <c r="AU136" s="16"/>
     </row>
-    <row r="137" spans="1:47">
+    <row r="137" ht="13.5" spans="1:47">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -6346,7 +6346,7 @@
       <c r="AT137" s="16"/>
       <c r="AU137" s="16"/>
     </row>
-    <row r="138" spans="1:47">
+    <row r="138" ht="13.5" spans="1:47">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -6395,7 +6395,7 @@
       <c r="AT138" s="16"/>
       <c r="AU138" s="16"/>
     </row>
-    <row r="139" spans="1:47">
+    <row r="139" ht="13.5" spans="1:47">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -6444,7 +6444,7 @@
       <c r="AT139" s="16"/>
       <c r="AU139" s="16"/>
     </row>
-    <row r="140" spans="1:47">
+    <row r="140" ht="13.5" spans="1:47">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -6493,7 +6493,7 @@
       <c r="AT140" s="16"/>
       <c r="AU140" s="16"/>
     </row>
-    <row r="141" spans="1:47">
+    <row r="141" ht="13.5" spans="1:47">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -6542,7 +6542,7 @@
       <c r="AT141" s="16"/>
       <c r="AU141" s="16"/>
     </row>
-    <row r="142" spans="1:47">
+    <row r="142" ht="13.5" spans="1:47">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -6591,7 +6591,7 @@
       <c r="AT142" s="16"/>
       <c r="AU142" s="16"/>
     </row>
-    <row r="143" spans="1:47">
+    <row r="143" ht="13.5" spans="1:47">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -6640,7 +6640,7 @@
       <c r="AT143" s="16"/>
       <c r="AU143" s="16"/>
     </row>
-    <row r="144" spans="1:47">
+    <row r="144" ht="13.5" spans="1:47">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -6689,7 +6689,7 @@
       <c r="AT144" s="16"/>
       <c r="AU144" s="16"/>
     </row>
-    <row r="145" spans="1:47">
+    <row r="145" ht="13.5" spans="1:47">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -6738,7 +6738,7 @@
       <c r="AT145" s="16"/>
       <c r="AU145" s="16"/>
     </row>
-    <row r="146" spans="1:47">
+    <row r="146" ht="13.5" spans="1:47">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -6787,7 +6787,7 @@
       <c r="AT146" s="16"/>
       <c r="AU146" s="16"/>
     </row>
-    <row r="147" spans="1:47">
+    <row r="147" ht="13.5" spans="1:47">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -6836,7 +6836,7 @@
       <c r="AT147" s="16"/>
       <c r="AU147" s="16"/>
     </row>
-    <row r="148" spans="1:47">
+    <row r="148" ht="13.5" spans="1:47">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -6885,7 +6885,7 @@
       <c r="AT148" s="16"/>
       <c r="AU148" s="16"/>
     </row>
-    <row r="149" spans="1:47">
+    <row r="149" ht="13.5" spans="1:47">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -6934,7 +6934,7 @@
       <c r="AT149" s="16"/>
       <c r="AU149" s="16"/>
     </row>
-    <row r="150" spans="1:47">
+    <row r="150" ht="13.5" spans="1:47">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -6983,7 +6983,7 @@
       <c r="AT150" s="16"/>
       <c r="AU150" s="16"/>
     </row>
-    <row r="151" spans="1:47">
+    <row r="151" ht="13.5" spans="1:47">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -7032,7 +7032,7 @@
       <c r="AT151" s="16"/>
       <c r="AU151" s="16"/>
     </row>
-    <row r="152" spans="1:47">
+    <row r="152" ht="13.5" spans="1:47">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -7081,7 +7081,7 @@
       <c r="AT152" s="16"/>
       <c r="AU152" s="16"/>
     </row>
-    <row r="153" spans="1:47">
+    <row r="153" ht="13.5" spans="1:47">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -7130,7 +7130,7 @@
       <c r="AT153" s="16"/>
       <c r="AU153" s="16"/>
     </row>
-    <row r="154" spans="1:47">
+    <row r="154" ht="13.5" spans="1:47">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -7179,7 +7179,7 @@
       <c r="AT154" s="16"/>
       <c r="AU154" s="16"/>
     </row>
-    <row r="155" spans="1:47">
+    <row r="155" ht="13.5" spans="1:47">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -7228,7 +7228,7 @@
       <c r="AT155" s="16"/>
       <c r="AU155" s="16"/>
     </row>
-    <row r="156" spans="1:47">
+    <row r="156" ht="13.5" spans="1:47">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -7277,7 +7277,7 @@
       <c r="AT156" s="16"/>
       <c r="AU156" s="16"/>
     </row>
-    <row r="157" spans="1:47">
+    <row r="157" ht="13.5" spans="1:47">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -7326,7 +7326,7 @@
       <c r="AT157" s="16"/>
       <c r="AU157" s="16"/>
     </row>
-    <row r="158" spans="1:47">
+    <row r="158" ht="13.5" spans="1:47">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -7375,7 +7375,7 @@
       <c r="AT158" s="16"/>
       <c r="AU158" s="16"/>
     </row>
-    <row r="159" spans="1:47">
+    <row r="159" ht="13.5" spans="1:47">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -7424,7 +7424,7 @@
       <c r="AT159" s="16"/>
       <c r="AU159" s="16"/>
     </row>
-    <row r="160" spans="1:47">
+    <row r="160" ht="13.5" spans="1:47">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -7473,7 +7473,7 @@
       <c r="AT160" s="16"/>
       <c r="AU160" s="16"/>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" ht="13.5" spans="1:47">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -7522,7 +7522,7 @@
       <c r="AT161" s="16"/>
       <c r="AU161" s="16"/>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" ht="13.5" spans="1:47">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -7571,7 +7571,7 @@
       <c r="AT162" s="16"/>
       <c r="AU162" s="16"/>
     </row>
-    <row r="163" spans="1:47">
+    <row r="163" ht="13.5" spans="1:47">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -7620,7 +7620,7 @@
       <c r="AT163" s="16"/>
       <c r="AU163" s="16"/>
     </row>
-    <row r="164" spans="1:47">
+    <row r="164" ht="13.5" spans="1:47">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -7669,7 +7669,7 @@
       <c r="AT164" s="16"/>
       <c r="AU164" s="16"/>
     </row>
-    <row r="165" spans="1:47">
+    <row r="165" ht="13.5" spans="1:47">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -7718,7 +7718,7 @@
       <c r="AT165" s="16"/>
       <c r="AU165" s="16"/>
     </row>
-    <row r="166" spans="1:47">
+    <row r="166" ht="13.5" spans="1:47">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -7767,7 +7767,7 @@
       <c r="AT166" s="16"/>
       <c r="AU166" s="16"/>
     </row>
-    <row r="167" spans="1:47">
+    <row r="167" ht="13.5" spans="1:47">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -7816,7 +7816,7 @@
       <c r="AT167" s="16"/>
       <c r="AU167" s="16"/>
     </row>
-    <row r="168" spans="1:47">
+    <row r="168" ht="13.5" spans="1:47">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -7865,7 +7865,7 @@
       <c r="AT168" s="16"/>
       <c r="AU168" s="16"/>
     </row>
-    <row r="169" spans="1:47">
+    <row r="169" ht="13.5" spans="1:47">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -7914,7 +7914,7 @@
       <c r="AT169" s="16"/>
       <c r="AU169" s="16"/>
     </row>
-    <row r="170" spans="1:47">
+    <row r="170" ht="13.5" spans="1:47">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -7963,7 +7963,7 @@
       <c r="AT170" s="16"/>
       <c r="AU170" s="16"/>
     </row>
-    <row r="171" spans="1:47">
+    <row r="171" ht="13.5" spans="1:47">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -8012,7 +8012,7 @@
       <c r="AT171" s="16"/>
       <c r="AU171" s="16"/>
     </row>
-    <row r="172" spans="1:47">
+    <row r="172" ht="13.5" spans="1:47">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -8061,7 +8061,7 @@
       <c r="AT172" s="16"/>
       <c r="AU172" s="16"/>
     </row>
-    <row r="173" spans="1:47">
+    <row r="173" ht="13.5" spans="1:47">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -8110,7 +8110,7 @@
       <c r="AT173" s="16"/>
       <c r="AU173" s="16"/>
     </row>
-    <row r="174" spans="1:47">
+    <row r="174" ht="13.5" spans="1:47">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -8159,7 +8159,7 @@
       <c r="AT174" s="16"/>
       <c r="AU174" s="16"/>
     </row>
-    <row r="175" spans="1:47">
+    <row r="175" ht="13.5" spans="1:47">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -8208,7 +8208,7 @@
       <c r="AT175" s="16"/>
       <c r="AU175" s="16"/>
     </row>
-    <row r="176" spans="1:47">
+    <row r="176" ht="13.5" spans="1:47">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -8257,7 +8257,7 @@
       <c r="AT176" s="16"/>
       <c r="AU176" s="16"/>
     </row>
-    <row r="177" spans="1:47">
+    <row r="177" ht="13.5" spans="1:47">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -8306,7 +8306,7 @@
       <c r="AT177" s="16"/>
       <c r="AU177" s="16"/>
     </row>
-    <row r="178" spans="1:47">
+    <row r="178" ht="13.5" spans="1:47">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -8355,7 +8355,7 @@
       <c r="AT178" s="16"/>
       <c r="AU178" s="16"/>
     </row>
-    <row r="179" spans="1:47">
+    <row r="179" ht="13.5" spans="1:47">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -8404,7 +8404,7 @@
       <c r="AT179" s="16"/>
       <c r="AU179" s="16"/>
     </row>
-    <row r="180" spans="1:47">
+    <row r="180" ht="13.5" spans="1:47">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -8453,7 +8453,7 @@
       <c r="AT180" s="16"/>
       <c r="AU180" s="16"/>
     </row>
-    <row r="181" spans="1:47">
+    <row r="181" ht="13.5" spans="1:47">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -8502,7 +8502,7 @@
       <c r="AT181" s="16"/>
       <c r="AU181" s="16"/>
     </row>
-    <row r="182" spans="1:47">
+    <row r="182" ht="13.5" spans="1:47">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -8551,7 +8551,7 @@
       <c r="AT182" s="16"/>
       <c r="AU182" s="16"/>
     </row>
-    <row r="183" spans="1:47">
+    <row r="183" ht="13.5" spans="1:47">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -8600,7 +8600,7 @@
       <c r="AT183" s="16"/>
       <c r="AU183" s="16"/>
     </row>
-    <row r="184" spans="1:47">
+    <row r="184" ht="13.5" spans="1:47">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -8649,7 +8649,7 @@
       <c r="AT184" s="16"/>
       <c r="AU184" s="16"/>
     </row>
-    <row r="185" spans="1:47">
+    <row r="185" ht="13.5" spans="1:47">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -8698,7 +8698,7 @@
       <c r="AT185" s="16"/>
       <c r="AU185" s="16"/>
     </row>
-    <row r="186" spans="1:47">
+    <row r="186" ht="13.5" spans="1:47">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -8747,7 +8747,7 @@
       <c r="AT186" s="16"/>
       <c r="AU186" s="16"/>
     </row>
-    <row r="187" spans="1:47">
+    <row r="187" ht="13.5" spans="1:47">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -8796,7 +8796,7 @@
       <c r="AT187" s="16"/>
       <c r="AU187" s="16"/>
     </row>
-    <row r="188" spans="1:47">
+    <row r="188" ht="13.5" spans="1:47">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -8845,7 +8845,7 @@
       <c r="AT188" s="16"/>
       <c r="AU188" s="16"/>
     </row>
-    <row r="189" spans="1:47">
+    <row r="189" ht="13.5" spans="1:47">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -8894,7 +8894,7 @@
       <c r="AT189" s="16"/>
       <c r="AU189" s="16"/>
     </row>
-    <row r="190" spans="1:47">
+    <row r="190" ht="13.5" spans="1:47">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -8943,7 +8943,7 @@
       <c r="AT190" s="16"/>
       <c r="AU190" s="16"/>
     </row>
-    <row r="191" spans="1:47">
+    <row r="191" ht="13.5" spans="1:47">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -8992,7 +8992,7 @@
       <c r="AT191" s="16"/>
       <c r="AU191" s="16"/>
     </row>
-    <row r="192" spans="1:47">
+    <row r="192" ht="13.5" spans="1:47">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -9041,7 +9041,7 @@
       <c r="AT192" s="16"/>
       <c r="AU192" s="16"/>
     </row>
-    <row r="193" spans="1:47">
+    <row r="193" ht="13.5" spans="1:47">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -9090,7 +9090,7 @@
       <c r="AT193" s="16"/>
       <c r="AU193" s="16"/>
     </row>
-    <row r="194" spans="1:47">
+    <row r="194" ht="13.5" spans="1:47">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -9139,7 +9139,7 @@
       <c r="AT194" s="16"/>
       <c r="AU194" s="16"/>
     </row>
-    <row r="195" spans="1:47">
+    <row r="195" ht="13.5" spans="1:47">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -9188,7 +9188,7 @@
       <c r="AT195" s="16"/>
       <c r="AU195" s="16"/>
     </row>
-    <row r="196" spans="1:47">
+    <row r="196" ht="13.5" spans="1:47">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -9237,7 +9237,7 @@
       <c r="AT196" s="16"/>
       <c r="AU196" s="16"/>
     </row>
-    <row r="197" spans="1:47">
+    <row r="197" ht="13.5" spans="1:47">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -9286,7 +9286,7 @@
       <c r="AT197" s="16"/>
       <c r="AU197" s="16"/>
     </row>
-    <row r="198" spans="1:47">
+    <row r="198" ht="13.5" spans="1:47">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -9335,7 +9335,7 @@
       <c r="AT198" s="16"/>
       <c r="AU198" s="16"/>
     </row>
-    <row r="199" spans="1:47">
+    <row r="199" ht="13.5" spans="1:47">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -9384,7 +9384,7 @@
       <c r="AT199" s="16"/>
       <c r="AU199" s="16"/>
     </row>
-    <row r="200" spans="1:47">
+    <row r="200" ht="13.5" spans="1:47">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -9433,7 +9433,7 @@
       <c r="AT200" s="16"/>
       <c r="AU200" s="16"/>
     </row>
-    <row r="201" spans="1:47">
+    <row r="201" ht="13.5" spans="1:47">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -9482,7 +9482,7 @@
       <c r="AT201" s="16"/>
       <c r="AU201" s="16"/>
     </row>
-    <row r="202" spans="1:47">
+    <row r="202" ht="13.5" spans="1:47">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -9531,7 +9531,7 @@
       <c r="AT202" s="16"/>
       <c r="AU202" s="16"/>
     </row>
-    <row r="203" spans="1:47">
+    <row r="203" ht="13.5" spans="1:47">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/场景.xlsx
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:AU203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
